--- a/application/download/pws_template/template_pws_ibu5.xlsx
+++ b/application/download/pws_template/template_pws_ibu5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>REKAPITULASI LAPORAN PWS-KIA (IBU)</t>
   </si>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,7 +329,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -368,6 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,6 +387,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,24 +696,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="31" customWidth="1"/>
-    <col min="6" max="11" width="11.69921875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.3984375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="8.09765625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="30" customWidth="1"/>
+    <col min="6" max="11" width="11.69921875" style="30" customWidth="1"/>
     <col min="12" max="13" width="12.796875" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.796875" style="31" customWidth="1"/>
-    <col min="21" max="30" width="26.09765625" style="31" customWidth="1"/>
-    <col min="31" max="1025" width="11.69921875" style="31" customWidth="1"/>
+    <col min="14" max="20" width="12.796875" style="30" customWidth="1"/>
+    <col min="21" max="30" width="26.09765625" style="30" customWidth="1"/>
+    <col min="31" max="1025" width="11.69921875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -726,7 +732,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>24</v>
       </c>
       <c r="O1" s="4"/>
@@ -734,7 +740,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="6"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="36"/>
+      <c r="T1" s="35"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
@@ -768,7 +774,7 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
@@ -802,7 +808,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="36"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
@@ -836,7 +842,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="36"/>
+      <c r="T4" s="35"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
@@ -868,7 +874,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="36"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -897,10 +903,10 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
@@ -1049,44 +1055,44 @@
       <c r="AMK9"/>
     </row>
     <row r="10" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>2</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>3</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33">
         <v>4</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <v>5</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>53</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>54</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>56</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>57</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>53</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="34">
         <v>54</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="34">
         <v>56</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="34">
         <v>57</v>
       </c>
       <c r="O10" s="7"/>
@@ -1113,7 +1119,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18" t="str">
         <f>IF(H11+G11=0,"",H11+G11)</f>
@@ -1157,24 +1163,24 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="17"/>
       <c r="I12" s="18" t="str">
-        <f t="shared" ref="I12:I25" si="0">IF(H12+G12=0,"",H12+G12)</f>
+        <f t="shared" ref="I12:I36" si="0">IF(H12+G12=0,"",H12+G12)</f>
         <v/>
       </c>
       <c r="J12" s="19" t="str">
-        <f t="shared" ref="J12:J25" si="1">IF(I12="","",I12/C12*100)</f>
+        <f t="shared" ref="J12:J36" si="1">IF(I12="","",I12/C12*100)</f>
         <v/>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="18" t="str">
-        <f t="shared" ref="M12:M25" si="2">IF(L12+K12=0,"",L12+K12)</f>
+        <f t="shared" ref="M12:M36" si="2">IF(L12+K12=0,"",L12+K12)</f>
         <v/>
       </c>
       <c r="N12" s="19" t="str">
-        <f t="shared" ref="N12:N25" si="3">IF(M12="","",M12/G12*100)</f>
+        <f t="shared" ref="N12:N36" si="3">IF(M12="","",M12/G12*100)</f>
         <v/>
       </c>
       <c r="O12" s="7"/>
@@ -1201,7 +1207,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="32"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1238,7 +1244,7 @@
       <c r="AMJ13"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1248,21 +1254,21 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I14:I24" si="4">IF(H14+G14=0,"",H14+G14)</f>
         <v/>
       </c>
       <c r="J14" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J14:J24" si="5">IF(I14="","",I14/C14*100)</f>
         <v/>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M14:M24" si="6">IF(L14+K14=0,"",L14+K14)</f>
         <v/>
       </c>
       <c r="N14" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N14:N24" si="7">IF(M14="","",M14/G14*100)</f>
         <v/>
       </c>
       <c r="O14" s="7"/>
@@ -1273,40 +1279,32 @@
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="32"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="17"/>
       <c r="I15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J15" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N15" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O15" s="7"/>
@@ -1317,40 +1315,32 @@
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
-      <c r="AMD15"/>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="17"/>
       <c r="I16" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J16" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N16" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O16" s="7"/>
@@ -1361,40 +1351,32 @@
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
-      <c r="AMD16"/>
-      <c r="AME16"/>
-      <c r="AMF16"/>
-      <c r="AMG16"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="32"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="17"/>
       <c r="I17" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J17" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N17" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O17" s="7"/>
@@ -1405,40 +1387,32 @@
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
-      <c r="AMD17"/>
-      <c r="AME17"/>
-      <c r="AMF17"/>
-      <c r="AMG17"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J18" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N18" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O18" s="7"/>
@@ -1449,40 +1423,32 @@
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-    </row>
-    <row r="19" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J19" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N19" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O19" s="7"/>
@@ -1493,40 +1459,32 @@
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
-      <c r="AMD19"/>
-      <c r="AME19"/>
-      <c r="AMF19"/>
-      <c r="AMG19"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
-    </row>
-    <row r="20" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="32"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J20" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N20" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O20" s="7"/>
@@ -1537,40 +1495,32 @@
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
-      <c r="AMD20"/>
-      <c r="AME20"/>
-      <c r="AMF20"/>
-      <c r="AMG20"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
-    </row>
-    <row r="21" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="32"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J21" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N21" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O21" s="7"/>
@@ -1581,16 +1531,8 @@
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
-      <c r="AMD21"/>
-      <c r="AME21"/>
-      <c r="AMF21"/>
-      <c r="AMG21"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
-    </row>
-    <row r="22" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>17</v>
@@ -1602,21 +1544,21 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J22" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N22" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O22" s="7"/>
@@ -1627,16 +1569,8 @@
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
-      <c r="AMD22"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-    </row>
-    <row r="23" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
         <v>17</v>
@@ -1648,21 +1582,21 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J23" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N23" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O23" s="7"/>
@@ -1673,42 +1607,34 @@
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
-      <c r="AMD23"/>
-      <c r="AME23"/>
-      <c r="AMF23"/>
-      <c r="AMG23"/>
-      <c r="AMH23"/>
-      <c r="AMI23"/>
-      <c r="AMJ23"/>
-      <c r="AMK23"/>
-    </row>
-    <row r="24" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+    </row>
+    <row r="24" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J24" s="19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N24" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O24" s="7"/>
@@ -1719,41 +1645,16 @@
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-      <c r="AMD24"/>
-      <c r="AME24"/>
-      <c r="AMF24"/>
-      <c r="AMG24"/>
-      <c r="AMH24"/>
-      <c r="AMI24"/>
-      <c r="AMJ24"/>
-      <c r="AMK24"/>
-    </row>
-    <row r="25" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="33">
-        <f>SUM(C11:C24)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="33">
-        <f t="shared" ref="D25:H25" si="4">SUM(D11:D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="25" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="18" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1762,14 +1663,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K25" s="33">
-        <f t="shared" ref="K25:L25" si="5">SUM(K11:K24)</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1782,10 +1677,10 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="ALZ25"/>
-      <c r="AMA25"/>
-      <c r="AMB25"/>
-      <c r="AMC25"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
       <c r="AMD25"/>
       <c r="AME25"/>
       <c r="AMF25"/>
@@ -1795,23 +1690,33 @@
       <c r="AMJ25"/>
       <c r="AMK25"/>
     </row>
-    <row r="26" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="23"/>
+    <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N26" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -1820,8 +1725,8 @@
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="AMD26"/>
+      <c r="AME26"/>
       <c r="AMF26"/>
       <c r="AMG26"/>
       <c r="AMH26"/>
@@ -1829,24 +1734,33 @@
       <c r="AMJ26"/>
       <c r="AMK26"/>
     </row>
-    <row r="27" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="30"/>
+    <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J27" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N27" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -1855,8 +1769,8 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
+      <c r="AMD27"/>
+      <c r="AME27"/>
       <c r="AMF27"/>
       <c r="AMG27"/>
       <c r="AMH27"/>
@@ -1864,333 +1778,827 @@
       <c r="AMJ27"/>
       <c r="AMK27"/>
     </row>
-    <row r="28" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="30"/>
+    <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N28" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
+      <c r="AMD28"/>
+      <c r="AME28"/>
+      <c r="AMF28"/>
+      <c r="AMG28"/>
       <c r="AMH28"/>
       <c r="AMI28"/>
       <c r="AMJ28"/>
       <c r="AMK28"/>
     </row>
-    <row r="29" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+    <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N29" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
+      <c r="AMD29"/>
+      <c r="AME29"/>
+      <c r="AMF29"/>
+      <c r="AMG29"/>
       <c r="AMH29"/>
       <c r="AMI29"/>
       <c r="AMJ29"/>
       <c r="AMK29"/>
     </row>
-    <row r="30" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
+    <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N30" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
+      <c r="AMD30"/>
+      <c r="AME30"/>
+      <c r="AMF30"/>
+      <c r="AMG30"/>
       <c r="AMH30"/>
       <c r="AMI30"/>
       <c r="AMJ30"/>
       <c r="AMK30"/>
     </row>
-    <row r="31" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="39"/>
+    <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J31" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N31" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
+      <c r="AMD31"/>
+      <c r="AME31"/>
+      <c r="AMF31"/>
+      <c r="AMG31"/>
       <c r="AMH31"/>
       <c r="AMI31"/>
       <c r="AMJ31"/>
       <c r="AMK31"/>
     </row>
-    <row r="32" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="39"/>
+    <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N32" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
+      <c r="AMD32"/>
+      <c r="AME32"/>
+      <c r="AMF32"/>
+      <c r="AMG32"/>
       <c r="AMH32"/>
       <c r="AMI32"/>
       <c r="AMJ32"/>
       <c r="AMK32"/>
     </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="39"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="39"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="31" t="s">
+    <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N33" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="AMD33"/>
+      <c r="AME33"/>
+      <c r="AMF33"/>
+      <c r="AMG33"/>
+      <c r="AMH33"/>
+      <c r="AMI33"/>
+      <c r="AMJ33"/>
+      <c r="AMK33"/>
+    </row>
+    <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J34" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N34" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="AMD34"/>
+      <c r="AME34"/>
+      <c r="AMF34"/>
+      <c r="AMG34"/>
+      <c r="AMH34"/>
+      <c r="AMI34"/>
+      <c r="AMJ34"/>
+      <c r="AMK34"/>
+    </row>
+    <row r="35" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50"/>
+      <c r="B35" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N35" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="AMD35"/>
+      <c r="AME35"/>
+      <c r="AMF35"/>
+      <c r="AMG35"/>
+      <c r="AMH35"/>
+      <c r="AMI35"/>
+      <c r="AMJ35"/>
+      <c r="AMK35"/>
+    </row>
+    <row r="36" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="32">
+        <f>SUM(C11:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="32">
+        <f t="shared" ref="D36:H36" si="8">SUM(D11:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="32">
+        <f t="shared" ref="K36:L36" si="9">SUM(K11:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N36" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="ALZ36"/>
+      <c r="AMA36"/>
+      <c r="AMB36"/>
+      <c r="AMC36"/>
+      <c r="AMD36"/>
+      <c r="AME36"/>
+      <c r="AMF36"/>
+      <c r="AMG36"/>
+      <c r="AMH36"/>
+      <c r="AMI36"/>
+      <c r="AMJ36"/>
+      <c r="AMK36"/>
+    </row>
+    <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="AMF37"/>
+      <c r="AMG37"/>
+      <c r="AMH37"/>
+      <c r="AMI37"/>
+      <c r="AMJ37"/>
+      <c r="AMK37"/>
+    </row>
+    <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="29"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="AMF38"/>
+      <c r="AMG38"/>
+      <c r="AMH38"/>
+      <c r="AMI38"/>
+      <c r="AMJ38"/>
+      <c r="AMK38"/>
+    </row>
+    <row r="39" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="29"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AMH39"/>
+      <c r="AMI39"/>
+      <c r="AMJ39"/>
+      <c r="AMK39"/>
+    </row>
+    <row r="40" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AMH40"/>
+      <c r="AMI40"/>
+      <c r="AMJ40"/>
+      <c r="AMK40"/>
+    </row>
+    <row r="41" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="38"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AMH41"/>
+      <c r="AMI41"/>
+      <c r="AMJ41"/>
+      <c r="AMK41"/>
+    </row>
+    <row r="42" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="37"/>
+      <c r="N42" s="38"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AMH42"/>
+      <c r="AMI42"/>
+      <c r="AMJ42"/>
+      <c r="AMK42"/>
+    </row>
+    <row r="43" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="37"/>
+      <c r="N43" s="38"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AMH43"/>
+      <c r="AMI43"/>
+      <c r="AMJ43"/>
+      <c r="AMK43"/>
+    </row>
+    <row r="44" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="38"/>
+    </row>
+    <row r="45" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="38"/>
+    </row>
+    <row r="46" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2198,7 +2606,7 @@
   <mergeCells count="16">
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>

--- a/application/download/pws_template/template_pws_ibu5.xlsx
+++ b/application/download/pws_template/template_pws_ibu5.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\dho\application\download\pws_template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8175"/>
+    <workbookView xWindow="10236" yWindow="-12" windowWidth="10272" windowHeight="8172"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -368,6 +373,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,12 +398,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,6 +408,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -698,25 +706,25 @@
   </sheetPr>
   <dimension ref="A1:AMK71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="8.09765625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="30" customWidth="1"/>
-    <col min="6" max="11" width="11.69921875" style="30" customWidth="1"/>
-    <col min="12" max="13" width="12.796875" style="1" customWidth="1"/>
-    <col min="14" max="20" width="12.796875" style="30" customWidth="1"/>
-    <col min="21" max="30" width="26.09765625" style="30" customWidth="1"/>
-    <col min="31" max="1025" width="11.69921875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="5.3828125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.61328125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.61328125" style="30" customWidth="1"/>
+    <col min="6" max="11" width="11.69140625" style="30" customWidth="1"/>
+    <col min="12" max="13" width="12.765625" style="1" customWidth="1"/>
+    <col min="14" max="20" width="12.765625" style="30" customWidth="1"/>
+    <col min="21" max="30" width="26.07421875" style="30" customWidth="1"/>
+    <col min="31" max="1025" width="11.69140625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +760,7 @@
       <c r="AC1" s="7"/>
       <c r="AD1" s="7"/>
     </row>
-    <row r="2" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -786,7 +794,7 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
     </row>
-    <row r="3" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -820,7 +828,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -854,7 +862,7 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -888,7 +896,7 @@
       <c r="AMJ5"/>
       <c r="AMK5"/>
     </row>
-    <row r="6" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -920,31 +928,31 @@
       <c r="AMJ6"/>
       <c r="AMK6"/>
     </row>
-    <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="42" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="48" t="s">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -962,41 +970,41 @@
       <c r="AMJ7"/>
       <c r="AMK7"/>
     </row>
-    <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44" t="s">
+    <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="42" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="47"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1014,23 +1022,23 @@
       <c r="AMJ8"/>
       <c r="AMK8"/>
     </row>
-    <row r="9" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
+    <row r="9" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1062,7 @@
       <c r="AMJ9"/>
       <c r="AMK9"/>
     </row>
-    <row r="10" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>1</v>
       </c>
@@ -1112,7 +1120,7 @@
       <c r="AMJ10"/>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1136,7 +1144,7 @@
         <v/>
       </c>
       <c r="N11" s="19" t="str">
-        <f>IF(M11="","",M11/G11*100)</f>
+        <f>IF(M11="","",M11/C11*100)</f>
         <v/>
       </c>
       <c r="O11" s="7"/>
@@ -1156,7 +1164,7 @@
       <c r="AMJ11"/>
       <c r="AMK11"/>
     </row>
-    <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1180,7 +1188,7 @@
         <v/>
       </c>
       <c r="N12" s="19" t="str">
-        <f t="shared" ref="N12:N36" si="3">IF(M12="","",M12/G12*100)</f>
+        <f t="shared" ref="N12:N35" si="3">IF(M12="","",M12/C12*100)</f>
         <v/>
       </c>
       <c r="O12" s="7"/>
@@ -1200,7 +1208,7 @@
       <c r="AMJ12"/>
       <c r="AMK12"/>
     </row>
-    <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1244,7 +1252,7 @@
       <c r="AMJ13"/>
       <c r="AMK13"/>
     </row>
-    <row r="14" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1268,7 +1276,7 @@
         <v/>
       </c>
       <c r="N14" s="19" t="str">
-        <f t="shared" ref="N14:N24" si="7">IF(M14="","",M14/G14*100)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" s="7"/>
@@ -1280,7 +1288,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1304,7 +1312,7 @@
         <v/>
       </c>
       <c r="N15" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" s="7"/>
@@ -1316,7 +1324,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1340,7 +1348,7 @@
         <v/>
       </c>
       <c r="N16" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O16" s="7"/>
@@ -1352,7 +1360,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1376,7 +1384,7 @@
         <v/>
       </c>
       <c r="N17" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" s="7"/>
@@ -1388,7 +1396,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1412,7 +1420,7 @@
         <v/>
       </c>
       <c r="N18" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" s="7"/>
@@ -1424,7 +1432,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1448,7 +1456,7 @@
         <v/>
       </c>
       <c r="N19" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O19" s="7"/>
@@ -1460,7 +1468,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1484,7 +1492,7 @@
         <v/>
       </c>
       <c r="N20" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O20" s="7"/>
@@ -1496,7 +1504,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1520,7 +1528,7 @@
         <v/>
       </c>
       <c r="N21" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O21" s="7"/>
@@ -1532,7 +1540,7 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
         <v>17</v>
@@ -1558,7 +1566,7 @@
         <v/>
       </c>
       <c r="N22" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O22" s="7"/>
@@ -1570,7 +1578,7 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16" t="s">
         <v>17</v>
@@ -1596,7 +1604,7 @@
         <v/>
       </c>
       <c r="N23" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O23" s="7"/>
@@ -1608,15 +1616,15 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+    <row r="24" spans="1:1025" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="str">
@@ -1634,7 +1642,7 @@
         <v/>
       </c>
       <c r="N24" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O24" s="7"/>
@@ -1646,7 +1654,7 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1690,7 +1698,7 @@
       <c r="AMJ25"/>
       <c r="AMK25"/>
     </row>
-    <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1734,7 +1742,7 @@
       <c r="AMJ26"/>
       <c r="AMK26"/>
     </row>
-    <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1778,7 +1786,7 @@
       <c r="AMJ27"/>
       <c r="AMK27"/>
     </row>
-    <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1822,7 +1830,7 @@
       <c r="AMJ28"/>
       <c r="AMK28"/>
     </row>
-    <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1866,7 +1874,7 @@
       <c r="AMJ29"/>
       <c r="AMK29"/>
     </row>
-    <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1910,7 +1918,7 @@
       <c r="AMJ30"/>
       <c r="AMK30"/>
     </row>
-    <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1954,7 +1962,7 @@
       <c r="AMJ31"/>
       <c r="AMK31"/>
     </row>
-    <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1998,7 +2006,7 @@
       <c r="AMJ32"/>
       <c r="AMK32"/>
     </row>
-    <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
         <v>17</v>
@@ -2044,7 +2052,7 @@
       <c r="AMJ33"/>
       <c r="AMK33"/>
     </row>
-    <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="16" t="s">
         <v>17</v>
@@ -2090,15 +2098,15 @@
       <c r="AMJ34"/>
       <c r="AMK34"/>
     </row>
-    <row r="35" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
+    <row r="35" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18" t="str">
@@ -2136,54 +2144,54 @@
       <c r="AMJ35"/>
       <c r="AMK35"/>
     </row>
-    <row r="36" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="47"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="32">
         <f>SUM(C11:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" ref="D36:H36" si="8">SUM(D11:D35)</f>
+        <f t="shared" ref="D36:H36" si="7">SUM(D11:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="32">
+        <f t="shared" ref="K36:L36" si="8">SUM(K11:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J36" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="32">
-        <f t="shared" ref="K36:L36" si="9">SUM(K11:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="M36" s="18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N36" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N36" si="9">IF(M36="","",M36/G36*100)</f>
         <v/>
       </c>
       <c r="O36" s="7"/>
@@ -2203,7 +2211,7 @@
       <c r="AMJ36"/>
       <c r="AMK36"/>
     </row>
-    <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22" t="s">
         <v>17</v>
@@ -2237,7 +2245,7 @@
       <c r="AMJ37"/>
       <c r="AMK37"/>
     </row>
-    <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="10" t="s">
         <v>17</v>
@@ -2272,7 +2280,7 @@
       <c r="AMJ38"/>
       <c r="AMK38"/>
     </row>
-    <row r="39" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="10" t="s">
         <v>17</v>
@@ -2305,7 +2313,7 @@
       <c r="AMJ39"/>
       <c r="AMK39"/>
     </row>
-    <row r="40" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="10" t="s">
         <v>17</v>
@@ -2336,7 +2344,7 @@
       <c r="AMJ40"/>
       <c r="AMK40"/>
     </row>
-    <row r="41" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="35" t="s">
         <v>17</v>
@@ -2368,7 +2376,7 @@
       <c r="AMJ41"/>
       <c r="AMK41"/>
     </row>
-    <row r="42" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
       <c r="B42" s="35" t="s">
         <v>17</v>
@@ -2402,7 +2410,7 @@
       <c r="AMJ42"/>
       <c r="AMK42"/>
     </row>
-    <row r="43" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="35"/>
       <c r="B43" s="35" t="s">
         <v>17</v>
@@ -2436,7 +2444,7 @@
       <c r="AMJ43"/>
       <c r="AMK43"/>
     </row>
-    <row r="44" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38" t="s">
         <v>17</v>
@@ -2454,7 +2462,7 @@
       <c r="M44" s="40"/>
       <c r="N44" s="38"/>
     </row>
-    <row r="45" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38" t="s">
         <v>17</v>
@@ -2472,132 +2480,132 @@
       <c r="M45" s="40"/>
       <c r="N45" s="38"/>
     </row>
-    <row r="46" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1025" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
         <v>17</v>
       </c>
